--- a/log/1步工序错误-1,1,1,1,1,1,1,1空载日志.xlsx
+++ b/log/1步工序错误-1,1,1,1,1,1,1,1空载日志.xlsx
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2128</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2480</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2089</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2145</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2218</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2239</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2160</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2294</v>
+        <v>2209</v>
       </c>
     </row>
   </sheetData>

--- a/log/1步工序错误-1,1,1,1,1,1,1,1空载日志.xlsx
+++ b/log/1步工序错误-1,1,1,1,1,1,1,1空载日志.xlsx
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1736</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1641</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1716</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1920</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1899</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1927</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2013</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2209</v>
+        <v>2898</v>
       </c>
     </row>
   </sheetData>

--- a/log/1步工序错误-1,1,1,1,1,1,1,1空载日志.xlsx
+++ b/log/1步工序错误-1,1,1,1,1,1,1,1空载日志.xlsx
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2437</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2370</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2379</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2584</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2657</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2633</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2842</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2898</v>
+        <v>2397</v>
       </c>
     </row>
   </sheetData>
